--- a/ejemplos/mix_PsylPpinaster.xlsx
+++ b/ejemplos/mix_PsylPpinaster.xlsx
@@ -41,16 +41,16 @@
     <t xml:space="preserve">MARTONNE</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_1</t>
+    <t xml:space="preserve">MARTONNE_2020</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_2</t>
+    <t xml:space="preserve">MARTONNE_2040</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_3</t>
+    <t xml:space="preserve">MARTONNE_2060</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_4</t>
+    <t xml:space="preserve">MARTONNE_2080</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -200,12 +200,12 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="2" width="13.89"/>
@@ -733,9 +733,9 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="3" width="8.67"/>
